--- a/scenarios/receptionist.xlsx
+++ b/scenarios/receptionist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21722"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\robocup\data-generator\setup\scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\robocup\data-generator\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790044A8-63AE-442E-8B91-5FDB648FEA26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045505BE-625E-4EF2-A357-2D15A92882F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scenarios/receptionist.xlsx
+++ b/scenarios/receptionist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\robocup\data-generator\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045505BE-625E-4EF2-A357-2D15A92882F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C46585-7FB6-4AD2-A98D-F6FE86A38F1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
   <si>
     <t>Scenario name</t>
   </si>
@@ -199,9 +199,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>localtion</t>
-  </si>
-  <si>
     <t>living room</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>seat</t>
   </si>
   <si>
-    <t>point to</t>
-  </si>
-  <si>
     <t>who</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t xml:space="preserve">what </t>
   </si>
   <si>
-    <t xml:space="preserve">point to </t>
-  </si>
-  <si>
     <t>human detection</t>
   </si>
   <si>
@@ -266,6 +257,18 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>Key 3</t>
+  </si>
+  <si>
+    <t>Value 3</t>
+  </si>
+  <si>
+    <t>pointTo</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
     <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -805,18 +808,18 @@
     </row>
     <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -832,10 +835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,13 +854,15 @@
     <col min="9" max="9" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="22" width="8.5703125"/>
     <col min="23" max="23" width="10.42578125"/>
     <col min="24" max="1027" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -874,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>49</v>
@@ -888,8 +893,14 @@
       <c r="K1" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <f>F2</f>
         <v>20</v>
@@ -912,7 +923,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A26" si="0">A2+F3</f>
         <v>20</v>
@@ -936,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -951,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -978,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -993,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1015,7 +1026,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1032,8 +1043,14 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1051,14 +1068,14 @@
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1076,20 +1093,26 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1107,14 +1130,14 @@
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -1133,7 +1156,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -1151,14 +1174,14 @@
         <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -1176,13 +1199,13 @@
         <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1201,7 +1224,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1216,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>guest1</f>
@@ -1244,14 +1267,14 @@
         <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2" t="str">
         <f>KnownPerson</f>
@@ -1292,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>guest1</f>
@@ -1320,14 +1343,14 @@
         <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="2" t="str">
         <f>KnownPerson</f>
         <v>John</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K20" s="2" t="str">
         <f>guest1</f>
@@ -1368,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1392,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,7 +1442,7 @@
         <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I24" s="2" t="str">
         <f>guest1</f>
@@ -1463,10 +1486,10 @@
         <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1527,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1569,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1608,6 +1631,12 @@
       <c r="G33" t="s">
         <v>17</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1627,7 +1656,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I34" s="2" t="str">
         <f>guest2</f>
@@ -1652,17 +1681,17 @@
         <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>guest2</f>
         <v>Guest 2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1683,7 +1712,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>guest2</f>
@@ -1727,7 +1756,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>guest2</f>
@@ -1752,10 +1781,10 @@
         <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1792,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>guest2</f>
@@ -1820,14 +1849,14 @@
         <v>29</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I42" s="2" t="str">
         <f>guest2</f>
         <v>Guest 2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K42" s="2" t="str">
         <f>guest1</f>
@@ -1859,7 +1888,7 @@
         <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>11.1</v>
@@ -1868,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I44" s="2" t="str">
         <f>KnownPerson</f>
@@ -1896,14 +1925,14 @@
         <v>29</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I45" s="2" t="str">
         <f>KnownPerson</f>
         <v>John</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45" s="2" t="str">
         <f>guest2</f>
@@ -1944,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>guest1</f>
@@ -1972,14 +2001,14 @@
         <v>29</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I48" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K48" s="2" t="str">
         <f>guest2</f>
@@ -2020,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2044,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2071,7 +2100,7 @@
         <v>34</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I52" s="2" t="str">
         <f>guest1</f>

--- a/scenarios/receptionist.xlsx
+++ b/scenarios/receptionist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\robocup\data-generator\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C46585-7FB6-4AD2-A98D-F6FE86A38F1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF9F42-C986-4EBE-B925-F099ED0CFA29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <t>Scenario name</t>
   </si>
@@ -199,18 +199,12 @@
     <t>time</t>
   </si>
   <si>
-    <t>living room</t>
-  </si>
-  <si>
     <t>empty seat</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>door</t>
-  </si>
-  <si>
     <t>seat</t>
   </si>
   <si>
@@ -269,6 +263,15 @@
   </si>
   <si>
     <t>pointTo</t>
+  </si>
+  <si>
+    <t>humanDetection</t>
+  </si>
+  <si>
+    <t>livingRoom</t>
+  </si>
+  <si>
+    <t>entrance</t>
   </si>
 </sst>
 </file>
@@ -800,7 +803,7 @@
     <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -808,18 +811,18 @@
     </row>
     <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>49</v>
@@ -894,10 +897,10 @@
         <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -962,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1004,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1044,10 +1047,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1068,7 +1071,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>guest1</f>
@@ -1093,20 +1096,20 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
@@ -1130,7 +1133,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>guest1</f>
@@ -1174,11 +1177,17 @@
         <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1199,10 +1208,10 @@
         <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1239,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>guest1</f>
@@ -1267,14 +1276,14 @@
         <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K17" s="2" t="str">
         <f>KnownPerson</f>
@@ -1315,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>guest1</f>
@@ -1343,14 +1352,14 @@
         <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I20" s="2" t="str">
         <f>KnownPerson</f>
         <v>John</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20" s="2" t="str">
         <f>guest1</f>
@@ -1391,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1415,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1442,7 +1451,7 @@
         <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I24" s="2" t="str">
         <f>guest1</f>
@@ -1486,10 +1495,10 @@
         <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1550,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1592,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1632,10 +1641,10 @@
         <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1656,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I34" s="2" t="str">
         <f>guest2</f>
@@ -1681,17 +1690,17 @@
         <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>guest2</f>
         <v>Guest 2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1712,7 +1721,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>guest2</f>
@@ -1756,11 +1765,17 @@
         <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>guest2</f>
         <v>Guest 2</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1781,10 +1796,10 @@
         <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1821,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>guest2</f>
@@ -1849,14 +1864,14 @@
         <v>29</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I42" s="2" t="str">
         <f>guest2</f>
         <v>Guest 2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42" s="2" t="str">
         <f>guest1</f>
@@ -1888,7 +1903,7 @@
         <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44">
         <v>11.1</v>
@@ -1897,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I44" s="2" t="str">
         <f>KnownPerson</f>
@@ -1925,14 +1940,14 @@
         <v>29</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I45" s="2" t="str">
         <f>KnownPerson</f>
         <v>John</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="2" t="str">
         <f>guest2</f>
@@ -1973,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>guest1</f>
@@ -2001,14 +2016,14 @@
         <v>29</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I48" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K48" s="2" t="str">
         <f>guest2</f>
@@ -2049,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2073,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2100,7 +2115,7 @@
         <v>34</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I52" s="2" t="str">
         <f>guest1</f>

--- a/scenarios/receptionist.xlsx
+++ b/scenarios/receptionist.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\robocup\data-generator\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF9F42-C986-4EBE-B925-F099ED0CFA29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD07906-2860-44A7-9F09-4BEC5DB76C35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
     <sheet name="Steps" sheetId="2" r:id="rId2"/>
     <sheet name="Speech" sheetId="5" r:id="rId3"/>
+    <sheet name="Variables" sheetId="6" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="guest1">Meta!$B$7</definedName>
-    <definedName name="guest2">Meta!$B$8</definedName>
-    <definedName name="KnownPerson">Meta!$B$6</definedName>
-    <definedName name="KnowPerson">Meta!$B$6</definedName>
+    <definedName name="guest1" localSheetId="3">[1]Meta!$B$7</definedName>
+    <definedName name="guest1">Meta!$F$2</definedName>
+    <definedName name="guest2" localSheetId="3">[1]Meta!$B$8</definedName>
+    <definedName name="guest2">Meta!$G$2</definedName>
+    <definedName name="KnownPerson" localSheetId="3">[1]Meta!$B$6</definedName>
+    <definedName name="KnownPerson">Meta!$E$2</definedName>
+    <definedName name="KnowPerson">Meta!$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
   <si>
     <t>Scenario name</t>
   </si>
@@ -205,9 +212,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>seat</t>
-  </si>
-  <si>
     <t>who</t>
   </si>
   <si>
@@ -238,9 +242,6 @@
     <t>Point to John</t>
   </si>
   <si>
-    <t>object detection</t>
-  </si>
-  <si>
     <t>Known Person</t>
   </si>
   <si>
@@ -272,13 +273,31 @@
   </si>
   <si>
     <t>entrance</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Location (ALMemory)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>guests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +329,14 @@
       <b/>
       <sz val="14"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,13 +377,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -375,10 +403,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -463,6 +501,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Meta"/>
+      <sheetName val="Steps"/>
+      <sheetName val="Speech"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>John</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Guest 1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Guest 2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,68 +833,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="8.28515625"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="C2">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="E2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -840,13 +913,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38:K38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" customWidth="1"/>
@@ -882,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>49</v>
@@ -897,10 +970,10 @@
         <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -908,9 +981,9 @@
         <f>F2</f>
         <v>20</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="4" t="e">
         <f>SUM(F2:F1000)/Meta!B3</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -947,7 +1020,7 @@
         <v>53</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -965,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1007,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1047,10 +1120,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1071,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>guest1</f>
@@ -1096,20 +1169,20 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
@@ -1133,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>guest1</f>
@@ -1177,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>guest1</f>
@@ -1187,7 +1260,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1211,7 +1284,7 @@
         <v>55</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1248,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>guest1</f>
@@ -1276,14 +1349,14 @@
         <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="2" t="str">
         <f>KnownPerson</f>
@@ -1324,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>guest1</f>
@@ -1352,14 +1425,14 @@
         <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="2" t="str">
         <f>KnownPerson</f>
         <v>John</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" s="2" t="str">
         <f>guest1</f>
@@ -1400,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>54</v>
@@ -1424,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>54</v>
@@ -1451,7 +1524,7 @@
         <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="2" t="str">
         <f>guest1</f>
@@ -1498,12 +1571,12 @@
         <v>55</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>A25+F27</f>
+        <f>A26+F27</f>
         <v>170</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1559,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1641,10 +1714,10 @@
         <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1665,7 +1738,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" s="2" t="str">
         <f>guest2</f>
@@ -1690,17 +1763,17 @@
         <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>guest2</f>
         <v>Guest 2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1721,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>guest2</f>
@@ -1765,7 +1838,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>guest2</f>
@@ -1775,7 +1848,7 @@
         <v>55</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,7 +1872,7 @@
         <v>55</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1836,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>guest2</f>
@@ -1864,14 +1937,14 @@
         <v>29</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I42" s="2" t="str">
         <f>guest2</f>
         <v>Guest 2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42" s="2" t="str">
         <f>guest1</f>
@@ -1903,7 +1976,7 @@
         <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>11.1</v>
@@ -1912,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I44" s="2" t="str">
         <f>KnownPerson</f>
@@ -1940,14 +2013,14 @@
         <v>29</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I45" s="2" t="str">
         <f>KnownPerson</f>
         <v>John</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" s="2" t="str">
         <f>guest2</f>
@@ -1988,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>guest1</f>
@@ -2016,14 +2089,14 @@
         <v>29</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I48" s="2" t="str">
         <f>guest1</f>
         <v>Guest 1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48" s="2" t="str">
         <f>guest2</f>
@@ -2064,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2088,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2115,7 +2188,7 @@
         <v>34</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I52" s="2" t="str">
         <f>guest1</f>
@@ -2146,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,529 +2457,256 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f>IF(ISBLANK(Steps!E26), "", Steps!E26)</f>
+        <v>6.1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <f>IF(ISBLANK(Steps!E27), "", Steps!E27)</f>
         <v>7</v>
       </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <f>IF(ISBLANK(Steps!E28), "", Steps!E28)</f>
         <v>7.1</v>
       </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <f>IF(ISBLANK(Steps!E29), "", Steps!E29)</f>
         <v>7.2</v>
       </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <f>IF(ISBLANK(Steps!E30), "", Steps!E30)</f>
         <v>7.3</v>
       </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <f>IF(ISBLANK(Steps!E31), "", Steps!E31)</f>
         <v>7.4</v>
       </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <f>IF(ISBLANK(Steps!E32), "", Steps!E32)</f>
         <v>8</v>
       </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <f>IF(ISBLANK(Steps!E33), "", Steps!E33)</f>
         <v>8.1</v>
       </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <f>IF(ISBLANK(Steps!E34), "", Steps!E34)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <f>IF(ISBLANK(Steps!E35), "", Steps!E35)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <f>IF(ISBLANK(Steps!E36), "", Steps!E36)</f>
         <v>8.4</v>
       </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <f>IF(ISBLANK(Steps!E37), "", Steps!E37)</f>
         <v>9</v>
       </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <f>IF(ISBLANK(Steps!E38), "", Steps!E38)</f>
         <v>9.1</v>
       </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <f>IF(ISBLANK(Steps!E39), "", Steps!E39)</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
         <f>IF(ISBLANK(Steps!E40), "", Steps!E40)</f>
         <v>10</v>
       </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
         <f>IF(ISBLANK(Steps!E41), "", Steps!E41)</f>
         <v>10.1</v>
       </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f>IF(ISBLANK(Steps!E42), "", Steps!E42)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <f>IF(ISBLANK(Steps!E43), "", Steps!E43)</f>
         <v>11</v>
       </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f>IF(ISBLANK(Steps!E44), "", Steps!E44)</f>
         <v>11.1</v>
       </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f>IF(ISBLANK(Steps!E45), "", Steps!E45)</f>
         <v>11.2</v>
       </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f>IF(ISBLANK(Steps!E46), "", Steps!E46)</f>
         <v>12</v>
       </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
         <f>IF(ISBLANK(Steps!E47), "", Steps!E47)</f>
         <v>12.1</v>
       </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
         <f>IF(ISBLANK(Steps!E48), "", Steps!E48)</f>
         <v>12.2</v>
       </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <f>IF(ISBLANK(Steps!E49), "", Steps!E49)</f>
         <v>13</v>
       </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <f>IF(ISBLANK(Steps!E50), "", Steps!E50)</f>
         <v>13.1</v>
       </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
         <f>IF(ISBLANK(Steps!E51), "", Steps!E51)</f>
         <v>13.2</v>
       </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
         <f>IF(ISBLANK(Steps!E52), "", Steps!E52)</f>
         <v>13.3</v>
       </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>IF(ISBLANK(Steps!D53), "", Steps!D53)</f>
-        <v/>
+      <c r="B52">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF(ISBLANK(Steps!D54), "", Steps!D54)</f>
+        <f>IF(ISBLANK(Steps!E54), "", Steps!E54)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF(ISBLANK(Steps!D55), "", Steps!D55)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>IF(ISBLANK(Steps!D56), "", Steps!D56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f>IF(ISBLANK(Steps!D57), "", Steps!D57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f>IF(ISBLANK(Steps!D58), "", Steps!D58)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f>IF(ISBLANK(Steps!D59), "", Steps!D59)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f>IF(ISBLANK(Steps!D60), "", Steps!D60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f>IF(ISBLANK(Steps!D61), "", Steps!D61)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f>IF(ISBLANK(Steps!D62), "", Steps!D62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f>IF(ISBLANK(Steps!D63), "", Steps!D63)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f>IF(ISBLANK(Steps!D64), "", Steps!D64)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f>IF(ISBLANK(Steps!D65), "", Steps!D65)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f>IF(ISBLANK(Steps!D66), "", Steps!D66)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f>IF(ISBLANK(Steps!D67), "", Steps!D67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f>IF(ISBLANK(Steps!D68), "", Steps!D68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f>IF(ISBLANK(Steps!D69), "", Steps!D69)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f>IF(ISBLANK(Steps!D70), "", Steps!D70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f>IF(ISBLANK(Steps!D71), "", Steps!D71)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f>IF(ISBLANK(Steps!D72), "", Steps!D72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f>IF(ISBLANK(Steps!D73), "", Steps!D73)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f>IF(ISBLANK(Steps!D74), "", Steps!D74)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f>IF(ISBLANK(Steps!D75), "", Steps!D75)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f>IF(ISBLANK(Steps!D76), "", Steps!D76)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
-        <f>IF(ISBLANK(Steps!D77), "", Steps!D77)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
-        <f>IF(ISBLANK(Steps!D78), "", Steps!D78)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
-        <f>IF(ISBLANK(Steps!D79), "", Steps!D79)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f>IF(ISBLANK(Steps!D80), "", Steps!D80)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
-        <f>IF(ISBLANK(Steps!D81), "", Steps!D81)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f>IF(ISBLANK(Steps!D82), "", Steps!D82)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f>IF(ISBLANK(Steps!D83), "", Steps!D83)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
-        <f>IF(ISBLANK(Steps!D84), "", Steps!D84)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f>IF(ISBLANK(Steps!D85), "", Steps!D85)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f>IF(ISBLANK(Steps!D86), "", Steps!D86)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f>IF(ISBLANK(Steps!D87), "", Steps!D87)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f>IF(ISBLANK(Steps!D88), "", Steps!D88)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f>IF(ISBLANK(Steps!D89), "", Steps!D89)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
-        <f>IF(ISBLANK(Steps!D90), "", Steps!D90)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f>IF(ISBLANK(Steps!D91), "", Steps!D91)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
-        <f>IF(ISBLANK(Steps!D92), "", Steps!D92)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
-        <f>IF(ISBLANK(Steps!D93), "", Steps!D93)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
-        <f>IF(ISBLANK(Steps!D94), "", Steps!D94)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
-        <f>IF(ISBLANK(Steps!D95), "", Steps!D95)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
-        <f>IF(ISBLANK(Steps!D96), "", Steps!D96)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
-        <f>IF(ISBLANK(Steps!D97), "", Steps!D97)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
-        <f>IF(ISBLANK(Steps!D98), "", Steps!D98)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
-        <f>IF(ISBLANK(Steps!D99), "", Steps!D99)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
-        <f>IF(ISBLANK(Steps!D100), "", Steps!D100)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
-        <f>IF(ISBLANK(Steps!D101), "", Steps!D101)</f>
+        <f>IF(ISBLANK(Steps!E55), "", Steps!E55)</f>
         <v/>
       </c>
     </row>
@@ -2918,4 +2718,75 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84335CB8-2392-434C-B28A-93FE14672896}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scenarios/receptionist.xlsx
+++ b/scenarios/receptionist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\robocup\data-generator\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD07906-2860-44A7-9F09-4BEC5DB76C35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE260F-0C44-4162-9361-3B83B0DE0626}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>

--- a/scenarios/receptionist.xlsx
+++ b/scenarios/receptionist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\robocup\data-generator\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE260F-0C44-4162-9361-3B83B0DE0626}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FB730B-1C96-4782-AD92-2D5B6CD32ED8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1008,8 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <f>E2+1</f>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1032,7 +1033,8 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <f t="shared" ref="E4:E52" si="1">E3+1</f>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1050,7 +1052,8 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1074,7 +1077,8 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0.4</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1092,7 +1096,8 @@
         <v>15</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F7" s="4">
         <v>40</v>
@@ -1111,7 +1116,8 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>1.1000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1135,7 +1141,8 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1160,7 +1167,8 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1.3</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1197,7 +1205,8 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1.4</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1222,7 +1231,8 @@
         <v>24</v>
       </c>
       <c r="E12" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
         <v>30</v>
@@ -1241,7 +1251,8 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2.1</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1272,7 +1283,8 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1296,7 +1308,8 @@
         <v>28</v>
       </c>
       <c r="E15" s="4">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="F15" s="4">
         <v>10</v>
@@ -1315,7 +1328,8 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>3.1</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1340,7 +1354,8 @@
         <v>31</v>
       </c>
       <c r="E17">
-        <v>3.2</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1372,7 +1387,8 @@
         <v>32</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="F18" s="4">
         <v>10</v>
@@ -1391,7 +1407,8 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>4.0999999999999996</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1416,7 +1433,8 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>4.2</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1448,7 +1466,8 @@
         <v>33</v>
       </c>
       <c r="E21" s="4">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="F21" s="4">
         <v>20</v>
@@ -1467,7 +1486,8 @@
         <v>35</v>
       </c>
       <c r="E22">
-        <v>5.0999999999999996</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1491,7 +1511,8 @@
         <v>36</v>
       </c>
       <c r="E23">
-        <v>5.2</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1515,7 +1536,8 @@
         <v>37</v>
       </c>
       <c r="E24">
-        <v>5.3</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1540,7 +1562,8 @@
         <v>38</v>
       </c>
       <c r="E25" s="4">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="F25" s="4">
         <v>20</v>
@@ -1559,7 +1582,8 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>6.1</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1583,7 +1607,8 @@
         <v>39</v>
       </c>
       <c r="E27" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="F27" s="4">
         <v>20</v>
@@ -1595,14 +1620,15 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" ref="A28:A52" si="1">A27+F28</f>
+        <f t="shared" ref="A28:A52" si="2">A27+F28</f>
         <v>170</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28">
-        <v>7.1</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1619,14 +1645,15 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29">
-        <v>7.2</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1637,14 +1664,15 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30">
-        <v>7.3</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1661,14 +1689,15 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31">
-        <v>7.4</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1679,14 +1708,15 @@
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="4">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="F32" s="4">
         <v>40</v>
@@ -1698,14 +1728,15 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33">
-        <v>8.1</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1722,14 +1753,15 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
-        <v>8.1999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1747,14 +1779,15 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35">
-        <v>8.3000000000000007</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1778,14 +1811,15 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
       </c>
       <c r="E36">
-        <v>8.4</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1803,14 +1837,15 @@
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="4">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="F37" s="4">
         <v>30</v>
@@ -1822,14 +1857,15 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38">
-        <v>9.1</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1853,14 +1889,15 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39">
-        <v>9.1999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1877,14 +1914,15 @@
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="4">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="F40" s="4">
         <v>10</v>
@@ -1896,14 +1934,15 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41">
-        <v>10.1</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1921,14 +1960,15 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
       </c>
       <c r="E42">
-        <v>10.199999999999999</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1953,14 +1993,15 @@
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E43" s="4">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="F43" s="4">
         <v>10</v>
@@ -1972,14 +2013,15 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="D44" t="s">
         <v>65</v>
       </c>
       <c r="E44">
-        <v>11.1</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1997,14 +2039,15 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="D45" t="s">
         <v>31</v>
       </c>
       <c r="E45">
-        <v>11.2</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2029,14 +2072,15 @@
     </row>
     <row r="46" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="4">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="F46" s="4">
         <v>10</v>
@@ -2048,14 +2092,15 @@
     </row>
     <row r="47" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="D47" t="s">
         <v>30</v>
       </c>
       <c r="E47">
-        <v>12.1</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2073,14 +2118,15 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
       </c>
       <c r="E48">
-        <v>12.2</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2105,14 +2151,15 @@
     </row>
     <row r="49" spans="1:11" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E49" s="4">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="F49" s="4">
         <v>30</v>
@@ -2124,14 +2171,15 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
       </c>
       <c r="E50">
-        <v>13.1</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2148,14 +2196,15 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="D51" t="s">
         <v>36</v>
       </c>
       <c r="E51">
-        <v>13.2</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2172,14 +2221,15 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="D52" t="s">
         <v>37</v>
       </c>
       <c r="E52">
-        <v>13.3</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2191,8 +2241,8 @@
         <v>56</v>
       </c>
       <c r="I52" s="2" t="str">
-        <f>guest1</f>
-        <v>Guest 1</v>
+        <f>guest2</f>
+        <v>Guest 2</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -2251,7 +2301,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>IF(ISBLANK(Steps!E3), "", Steps!E3)</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2260,7 +2310,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>IF(ISBLANK(Steps!E4), "", Steps!E4)</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2269,7 +2319,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>IF(ISBLANK(Steps!E5), "", Steps!E5)</f>
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2278,7 +2328,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>IF(ISBLANK(Steps!E6), "", Steps!E6)</f>
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2287,7 +2337,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>IF(ISBLANK(Steps!E7), "", Steps!E7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2296,7 +2346,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>IF(ISBLANK(Steps!E8), "", Steps!E8)</f>
-        <v>1.1000000000000001</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2305,7 +2355,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>IF(ISBLANK(Steps!E9), "", Steps!E9)</f>
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2314,7 +2364,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>IF(ISBLANK(Steps!E10), "", Steps!E10)</f>
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2323,7 +2373,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>IF(ISBLANK(Steps!E11), "", Steps!E11)</f>
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2332,7 +2382,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>IF(ISBLANK(Steps!E12), "", Steps!E12)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2341,7 +2391,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>IF(ISBLANK(Steps!E13), "", Steps!E13)</f>
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2350,7 +2400,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>IF(ISBLANK(Steps!E14), "", Steps!E14)</f>
-        <v>2.2000000000000002</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2359,7 +2409,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>IF(ISBLANK(Steps!E15), "", Steps!E15)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2368,7 +2418,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>IF(ISBLANK(Steps!E16), "", Steps!E16)</f>
-        <v>3.1</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2377,7 +2427,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>IF(ISBLANK(Steps!E17), "", Steps!E17)</f>
-        <v>3.2</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2386,7 +2436,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>IF(ISBLANK(Steps!E18), "", Steps!E18)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2395,7 +2445,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>IF(ISBLANK(Steps!E19), "", Steps!E19)</f>
-        <v>4.0999999999999996</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2404,7 +2454,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>IF(ISBLANK(Steps!E20), "", Steps!E20)</f>
-        <v>4.2</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2413,7 +2463,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>IF(ISBLANK(Steps!E21), "", Steps!E21)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2422,7 +2472,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>IF(ISBLANK(Steps!E22), "", Steps!E22)</f>
-        <v>5.0999999999999996</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2431,7 +2481,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>IF(ISBLANK(Steps!E23), "", Steps!E23)</f>
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2440,7 +2490,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>IF(ISBLANK(Steps!E24), "", Steps!E24)</f>
-        <v>5.3</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2449,7 +2499,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>IF(ISBLANK(Steps!E25), "", Steps!E25)</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2458,7 +2508,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>IF(ISBLANK(Steps!E26), "", Steps!E26)</f>
-        <v>6.1</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2467,7 +2517,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>IF(ISBLANK(Steps!E27), "", Steps!E27)</f>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2476,7 +2526,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>IF(ISBLANK(Steps!E28), "", Steps!E28)</f>
-        <v>7.1</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -2485,7 +2535,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>IF(ISBLANK(Steps!E29), "", Steps!E29)</f>
-        <v>7.2</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2494,7 +2544,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>IF(ISBLANK(Steps!E30), "", Steps!E30)</f>
-        <v>7.3</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -2503,7 +2553,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>IF(ISBLANK(Steps!E31), "", Steps!E31)</f>
-        <v>7.4</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2512,7 +2562,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>IF(ISBLANK(Steps!E32), "", Steps!E32)</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2521,7 +2571,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>IF(ISBLANK(Steps!E33), "", Steps!E33)</f>
-        <v>8.1</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2530,7 +2580,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>IF(ISBLANK(Steps!E34), "", Steps!E34)</f>
-        <v>8.1999999999999993</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -2539,7 +2589,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>IF(ISBLANK(Steps!E35), "", Steps!E35)</f>
-        <v>8.3000000000000007</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -2548,7 +2598,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>IF(ISBLANK(Steps!E36), "", Steps!E36)</f>
-        <v>8.4</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -2557,7 +2607,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>IF(ISBLANK(Steps!E37), "", Steps!E37)</f>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -2566,7 +2616,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>IF(ISBLANK(Steps!E38), "", Steps!E38)</f>
-        <v>9.1</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2575,7 +2625,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>IF(ISBLANK(Steps!E39), "", Steps!E39)</f>
-        <v>9.1999999999999993</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -2584,7 +2634,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>IF(ISBLANK(Steps!E40), "", Steps!E40)</f>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -2593,7 +2643,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>IF(ISBLANK(Steps!E41), "", Steps!E41)</f>
-        <v>10.1</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -2602,7 +2652,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>IF(ISBLANK(Steps!E42), "", Steps!E42)</f>
-        <v>10.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -2611,7 +2661,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>IF(ISBLANK(Steps!E43), "", Steps!E43)</f>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -2620,7 +2670,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>IF(ISBLANK(Steps!E44), "", Steps!E44)</f>
-        <v>11.1</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -2629,7 +2679,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>IF(ISBLANK(Steps!E45), "", Steps!E45)</f>
-        <v>11.2</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -2638,7 +2688,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>IF(ISBLANK(Steps!E46), "", Steps!E46)</f>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -2647,7 +2697,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>IF(ISBLANK(Steps!E47), "", Steps!E47)</f>
-        <v>12.1</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -2656,7 +2706,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>IF(ISBLANK(Steps!E48), "", Steps!E48)</f>
-        <v>12.2</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -2665,7 +2715,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>IF(ISBLANK(Steps!E49), "", Steps!E49)</f>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -2674,7 +2724,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>IF(ISBLANK(Steps!E50), "", Steps!E50)</f>
-        <v>13.1</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -2683,7 +2733,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>IF(ISBLANK(Steps!E51), "", Steps!E51)</f>
-        <v>13.2</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -2692,7 +2742,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>IF(ISBLANK(Steps!E52), "", Steps!E52)</f>
-        <v>13.3</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>51</v>
